--- a/Forecast scores.xlsx
+++ b/Forecast scores.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MwsHost\Documents\IBA Hackthaton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pcw\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BC96B6-2CE6-4BB3-99BE-A1995ECF27E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="14050" xr2:uid="{B0897099-D90E-4D6B-A6CF-C1BC95D2E740}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>N</t>
   </si>
@@ -57,12 +56,15 @@
   </si>
   <si>
     <t>Class</t>
+  </si>
+  <si>
+    <t>The Folllowing results are calculated through Knime worksheet, attached as Session2.KNWF.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -407,21 +409,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3808D17-EE06-4828-B0C2-4C8728DCC862}">
-  <dimension ref="B2:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -429,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -437,7 +444,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -445,7 +452,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -453,7 +460,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -461,7 +468,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -469,7 +476,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
